--- a/company_keyword.xlsx
+++ b/company_keyword.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="600" yWindow="570" windowWidth="14055" windowHeight="4050"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>company</t>
   </si>
@@ -22,88 +25,232 @@
     <t>TCS</t>
   </si>
   <si>
-    <t>Tata Consultancy Services
-</t>
+    <t>Tata Consultancy Services,TCS,Natarajan Chandrasekaran,Ratan Tata,Tata Group,JRD Tata,J.R.D. Tata,F.C. Kohli,FC Kohli</t>
   </si>
   <si>
     <t>INFO</t>
   </si>
   <si>
+    <t>Narayana Murthy,Infosys,Nandan Nilekani,N.S. Raghavan,NS Raghavan,S. Gopalakrishnan,S Gopalakrishnan,Kris Gopalakrishnan,Gopalakrishnan S,S.D. Shibulal,SD Shibulal,K. Dinesh,K Dinesh,Ashok Arora,Vishal Sikka,INFY</t>
+  </si>
+  <si>
     <t>HCL</t>
   </si>
   <si>
+    <t>HCL Technologies,HCLTECH,Shiv Nadar,C Vijayakumar,C. Vijayakumar,CVK, HCL enterprise</t>
+  </si>
+  <si>
     <t>TM</t>
   </si>
   <si>
+    <t>Tech Mahindra,TECHM,Anand Mahindra,Vineet Nayar,C.P. Gurnani,CP Gurnani,Mahindra Group</t>
+  </si>
+  <si>
     <t>WIP</t>
   </si>
   <si>
+    <t>Abidali Z. Neemuchwala,Abidali Z Neemuchwala,Wipro,Mohamed Hasham Premji,Azim Premji</t>
+  </si>
+  <si>
     <t>BPCL</t>
   </si>
   <si>
+    <t>Bharat Petroleum Corporation,BPCL,D. Rajkumar,D Rajkumar,S. Varadarajan,S Varadarajan</t>
+  </si>
+  <si>
     <t>GAIL</t>
   </si>
   <si>
+    <t>Gas Authority of India Limited,B.C. Tripathi,BC Tripathi,GAIL(India),GAIL</t>
+  </si>
+  <si>
     <t>NTPC</t>
   </si>
   <si>
+    <t>National Thermal Power Corporation,NTPC,Gurdeep Singh</t>
+  </si>
+  <si>
     <t>ONGC</t>
   </si>
   <si>
+    <t>Oil and Natural Gas Corporation,Oil &amp; Natural Gas Corporation,ONGC,Dinesh Kumar Siraf</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Power Grid Corporation of India,POWERGRID,I.S. Jha,IS Jha,R.N. Nayak,RN Nayak</t>
+  </si>
+  <si>
     <t>REL</t>
   </si>
   <si>
     <t>TP</t>
   </si>
   <si>
+    <t>TATAPOWER,Tata Power,Cyrus Pallonji Mistry,Anil Sardana,Dorabji Tata,Tata Group</t>
+  </si>
+  <si>
     <t>AX</t>
   </si>
   <si>
+    <t>AXIS bank,AXISBANK,Shikha Sharma,Sanjiv Misra</t>
+  </si>
+  <si>
     <t>BOB</t>
   </si>
   <si>
+    <t>BANKBARODA,Bank of Baroda,Ranjan Dhawan,P.S. Jayakumar,PS Jayakumar,Ravi Venkatesan,Bhagat Dangar</t>
+  </si>
+  <si>
     <t>HDFC</t>
   </si>
   <si>
+    <t>HDFC,Hasmukhbhai Parekh,Deepak Parekh,Keki Mistry,Renu Sud Karnad,Housing Development Finance Corporation</t>
+  </si>
+  <si>
     <t>HDFCB</t>
   </si>
   <si>
+    <t>HDFCBANK,HDFC bank,Aditya Puri</t>
+  </si>
+  <si>
     <t>ICICI</t>
   </si>
   <si>
+    <t>ICICIBANK,ICICI bank,M.K. Sharma,MK Sharma,Chanda Kochhar,Industrial Credit and Investment Corporation of India,Industrial Credit &amp; Investment Corporation of India</t>
+  </si>
+  <si>
     <t>ININ</t>
   </si>
   <si>
+    <t>Indus Ind bank,INDUSINDBANK,Srichand Hinduja,Romesh Sobti,Hinduja Group</t>
+  </si>
+  <si>
     <t>KMB</t>
   </si>
   <si>
+    <t>KOTAKBANK,Kotak Mahindra bank,Uday Kotak,Dipak Gupta,Jaimin Bhatt,Shanti Ekambaram,K.V.S. Manian Narayan S.A.,KVS Manian Narayan SA,Mohan Shenoi,Gaurang Shah,D. Kannan,D. Kannan,Arvind Kathpalia</t>
+  </si>
+  <si>
     <t>SBI</t>
   </si>
   <si>
+    <t>State Bank of India,SBIN,SBI,Arundhati Bhattacharya,Krishna Kumar</t>
+  </si>
+  <si>
     <t>YB</t>
+  </si>
+  <si>
+    <t>YESBANK,Yes bank,Avi,Rana Kapoor</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>Reliance Industries,Mukesh Ambani,Anil Ambani,Reliance Commercial Corporation,RELIANCE,RIL</t>
+  </si>
+  <si>
+    <t>AIRTL</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>LUPIN</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>BAJAJ</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>TATAM</t>
+  </si>
+  <si>
+    <t>Bharti Airtel,Airtel,BHARTIARTL,Sunil Bharti Mittal,Sunil Mittal,Bharti Enterprises,Gopal Vittal,Srikanth Balakrishnan,Abhay Sarvargaonkar</t>
+  </si>
+  <si>
+    <t>Idea Cellular,IDEA,Aditya Birla Group,Axiata Group Berhad,Kumar Mangalam Birla,Himanshu Kapania,Aditya Birla,Akshaya Moondra,Anil Tandan</t>
+  </si>
+  <si>
+    <t>Cipla Limited,CIPLA,Y.K. Hamied,Umang Vohra,Pharma Cipla,Kedar Upadhye</t>
+  </si>
+  <si>
+    <t>Lupin Limited,LUPIN,Desh Bandhu Gupta,Vinita Gupta,Nilesh Gupta,Kamal Sharma,Lupin Pharmaceuticals,Ramesh Swaminathan,Avijit Bhakat</t>
+  </si>
+  <si>
+    <t>Sun Pharmaceuticals,Sun Pharmaceuticals Industries Limited,SUNPHARMA,Dilip Shanghvi</t>
+  </si>
+  <si>
+    <t>Bajaj Auto,Bajaj,BAJAJ-AUTO,Bajaj Auto Limited,Rahul Bajaj,Ravi Bajaj,Jamnalal Bajaj,Bajaj Group</t>
+  </si>
+  <si>
+    <t>Hero Motocorp,HEROMOTOCO,Hero Honda,Brijmohan Lall Munjal,Pawan Munjal,Hero Cycles</t>
+  </si>
+  <si>
+    <t>mopng,Ministry of Petroleum and Natural Gas,mop&amp;ng,natural gas,petroleum,energy sector,powermin,Ministry of Energy sources,Ministry of New and Renewable Energy,MNRE,Ministry of Power,meity,information technology,I.T.,IT Industry,ITes,banking,finance,financial services,Reserve Bank of India,RBI,R.B.I.,banking system,banking structure,finmin,Ministry of Finance, Department of Financial Services, Pharmaceuticals, Automobile, Automotive</t>
+  </si>
+  <si>
+    <t>Mahindra,M&amp;M,Mahindra and Mahindra Limited,Mahindra Group,Anand Mahindra,Pawan Goenka</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki India Limited,Maruti Suzuki,R.C. Bhargava,RC Bhargava,MARUTI,Suzuki Motor Corporation</t>
+  </si>
+  <si>
+    <t>Tata Motors Limited,TELCO,TATAMOTORS,Tata Group,Tata Motors Cars,Guenter Butschek,Chandrasekaran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="'Arial'"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -112,41 +259,331 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="153.71"/>
+    <col min="2" max="2" width="153.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -154,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -162,107 +599,256 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>